--- a/testData/CreateEntity/CreateEntity_OOFS_MultiSuccessCase_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_MultiSuccessCase_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="175">
   <si>
     <t>WorflowName</t>
   </si>
@@ -398,22 +398,164 @@
     <t>2024-04-04</t>
   </si>
   <si>
-    <t>2024-04-04 02:13:29 PM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Apr 04, 2024 at 2:16 PM</t>
-  </si>
-  <si>
-    <t>2024-04-04 02:22:54 PM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Apr 04, 2024 at 2:32 PM</t>
+    <t>2024-04-04 04:55:50 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Apr 04, 2024 at 4:58 PM</t>
+  </si>
+  <si>
+    <t>2024-04-04 05:05:10 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Apr 04, 2024 at 5:14 PM</t>
+  </si>
+  <si>
+    <t>2024-04-04 06:21:28 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Apr 04, 2024 at 6:24 PM</t>
+  </si>
+  <si>
+    <t>2024-04-04 06:30:46 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Apr 04, 2024 at 6:33 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Apr 04, 2024 at 6:40 PM</t>
+  </si>
+  <si>
+    <t>2024-04-05</t>
+  </si>
+  <si>
+    <t>02:35:55 AM</t>
+  </si>
+  <si>
+    <t>2024-04-05 10:57:21 AM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 11:00 AM</t>
+  </si>
+  <si>
+    <t>2024-04-05 11:06:43 AM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 11:09 AM</t>
+  </si>
+  <si>
+    <t>2024-04-05 11:29:56 AM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 11:32 AM</t>
+  </si>
+  <si>
+    <t>2024-04-05 11:40:19 AM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 11:43 AM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 11:51 AM</t>
+  </si>
+  <si>
+    <t>2024-04-05 12:01:46 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 12:04 PM</t>
+  </si>
+  <si>
+    <t>2024-04-05 12:23:20 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 12:26 PM</t>
+  </si>
+  <si>
+    <t>2024-04-05 12:42:32 PM</t>
+  </si>
+  <si>
+    <t>2024-04-05 01:42:28 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 1:45 PM</t>
+  </si>
+  <si>
+    <t>2024-04-05 01:51:03 PM</t>
+  </si>
+  <si>
+    <t>2024-04-05 01:58:18 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 2:01 PM</t>
+  </si>
+  <si>
+    <t>2024-04-05 02:16:33 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 2:19 PM</t>
+  </si>
+  <si>
+    <t>2024-04-05 02:26:11 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 2:28 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 2:35 PM</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2024-04-05 03:03:58 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 3:06 PM</t>
+  </si>
+  <si>
+    <t>2024-04-05 03:14:01 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 3:16 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 3:24 PM</t>
+  </si>
+  <si>
+    <t>2024-04-05 03:50:19 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 3:53 PM</t>
+  </si>
+  <si>
+    <t>2024-04-05 04:00:21 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 4:03 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 4:10 PM</t>
+  </si>
+  <si>
+    <t>2024-04-05 07:43:05 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 7:45 PM</t>
+  </si>
+  <si>
+    <t>2024-04-05 07:52:58 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 7:55 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 8:02 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -765,65 +907,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="2"/>
-    <col min="10" max="10" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.7109375" style="2"/>
-    <col min="15" max="15" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="2"/>
-    <col min="17" max="17" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" style="2"/>
-    <col min="22" max="22" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.42578125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.42578125" style="2" customWidth="1"/>
-    <col min="46" max="46" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18" style="2" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="2" max="2" customWidth="true" style="2" width="22.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="37.5703125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="9" max="9" style="2" width="8.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="13" max="14" style="2" width="8.7109375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="16" max="16" style="2" width="8.7109375"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="21" max="21" style="2" width="8.7109375"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7109375"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.42578125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7109375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="33" max="33" customWidth="true" style="2" width="20.42578125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="27.5703125"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="2" width="19.140625"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="26.140625"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="22.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.42578125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.28515625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7109375"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.28515625"/>
+    <col min="55" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -986,7 +1128,7 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" t="s" s="2">
         <v>79</v>
       </c>
     </row>
@@ -1033,14 +1175,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="P2" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>124</v>
+      <c r="Q2" t="s" s="2">
+        <v>170</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>66</v>
@@ -1078,8 +1220,8 @@
       <c r="AC2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>123</v>
+      <c r="AD2" t="s" s="2">
+        <v>133</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1099,7 +1241,7 @@
       <c r="AJ2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AL2" s="2" t="s">
@@ -1141,8 +1283,8 @@
       <c r="BA2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BB2" s="2" t="s">
-        <v>125</v>
+      <c r="BB2" t="s" s="2">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1162,61 +1304,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.28515625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.28515625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
+    <col min="29" max="29" customWidth="true" style="2" width="38.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.85546875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -1379,7 +1521,7 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" t="s" s="2">
         <v>79</v>
       </c>
     </row>
@@ -1426,14 +1568,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="P2" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>126</v>
+      <c r="Q2" t="s" s="2">
+        <v>172</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>66</v>
@@ -1471,8 +1613,8 @@
       <c r="AC2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>123</v>
+      <c r="AD2" t="s" s="2">
+        <v>133</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1525,8 +1667,8 @@
       <c r="BA2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BB2" s="2" t="s">
-        <v>127</v>
+      <c r="BB2" t="s" s="2">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1551,52 +1693,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="35.28515625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
+    <col min="29" max="29" customWidth="true" style="2" width="35.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -1920,54 +2062,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -2290,16 +2432,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.7109375" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.5703125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.28515625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.140625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="31.7109375"/>
+    <col min="9" max="9" customWidth="true" width="31.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="26.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/testData/CreateEntity/CreateEntity_OOFS_MultiSuccessCase_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_MultiSuccessCase_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="188">
   <si>
     <t>WorflowName</t>
   </si>
@@ -549,6 +549,45 @@
   </si>
   <si>
     <t>CT: Fri, Apr 05, 2024 at 8:02 PM</t>
+  </si>
+  <si>
+    <t>2024-04-06</t>
+  </si>
+  <si>
+    <t>2024-04-06 04:54:05 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Apr 06, 2024 at 4:56 PM</t>
+  </si>
+  <si>
+    <t>2024-04-06 05:04:07 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Apr 06, 2024 at 5:06 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Apr 06, 2024 at 5:14 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Apr 08, 2024 at 4:13 PM</t>
+  </si>
+  <si>
+    <t>2024-04-09</t>
+  </si>
+  <si>
+    <t>2024-04-09 03:46:41 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Apr 09, 2024 at 3:49 PM</t>
+  </si>
+  <si>
+    <t>2024-04-09 03:57:07 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Apr 09, 2024 at 4:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Apr 09, 2024 at 4:07 PM</t>
   </si>
 </sst>
 </file>
@@ -1176,13 +1215,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>122</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>66</v>
@@ -1221,7 +1260,7 @@
         <v>89</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1284,7 +1323,7 @@
         <v>73</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1569,13 +1608,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>122</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>66</v>
@@ -1614,7 +1653,7 @@
         <v>89</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1668,7 +1707,7 @@
         <v>91</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2272,7 +2311,7 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" t="s" s="2">
         <v>79</v>
       </c>
     </row>
@@ -2408,6 +2447,9 @@
       </c>
       <c r="BA2" s="4" t="s">
         <v>99</v>
+      </c>
+      <c r="BB2" t="s" s="2">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_OOFS_MultiSuccessCase_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_MultiSuccessCase_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="133">
   <si>
     <t>WorflowName</t>
   </si>
@@ -292,10 +292,6 @@
     <t>11111111111</t>
   </si>
   <si>
-    <t>India's First Lead Management System with
-"Auto Lead Call Distribution With Call Recording"</t>
-  </si>
-  <si>
     <t>SummaryAddNewLead@gmail.com</t>
   </si>
   <si>
@@ -308,9 +304,6 @@
     <t>DuplicateEnquiry@gmail.com</t>
   </si>
   <si>
-    <t>Sales Team Management module helps sales team to plan, prioritize daily activities such as calls, followups &amp; Visits. The module consists of Activity Screen, Due Date, Time, Email/SMS Reminders, Activity Completion Notes.</t>
-  </si>
-  <si>
     <t>Edit Record</t>
   </si>
   <si>
@@ -386,208 +379,49 @@
     <t>OpportPhonePrefix</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>EnquriyCheckName</t>
   </si>
   <si>
     <t>02:35:55 PM</t>
   </si>
   <si>
-    <t>2024-04-04</t>
-  </si>
-  <si>
-    <t>2024-04-04 04:55:50 PM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Apr 04, 2024 at 4:58 PM</t>
-  </si>
-  <si>
-    <t>2024-04-04 05:05:10 PM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Apr 04, 2024 at 5:14 PM</t>
-  </si>
-  <si>
-    <t>2024-04-04 06:21:28 PM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Apr 04, 2024 at 6:24 PM</t>
-  </si>
-  <si>
-    <t>2024-04-04 06:30:46 PM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Apr 04, 2024 at 6:33 PM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Apr 04, 2024 at 6:40 PM</t>
-  </si>
-  <si>
-    <t>2024-04-05</t>
-  </si>
-  <si>
-    <t>02:35:55 AM</t>
-  </si>
-  <si>
-    <t>2024-04-05 10:57:21 AM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 11:00 AM</t>
-  </si>
-  <si>
-    <t>2024-04-05 11:06:43 AM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 11:09 AM</t>
-  </si>
-  <si>
-    <t>2024-04-05 11:29:56 AM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 11:32 AM</t>
-  </si>
-  <si>
-    <t>2024-04-05 11:40:19 AM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 11:43 AM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 11:51 AM</t>
-  </si>
-  <si>
-    <t>2024-04-05 12:01:46 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 12:04 PM</t>
-  </si>
-  <si>
-    <t>2024-04-05 12:23:20 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 12:26 PM</t>
-  </si>
-  <si>
-    <t>2024-04-05 12:42:32 PM</t>
-  </si>
-  <si>
-    <t>2024-04-05 01:42:28 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 1:45 PM</t>
-  </si>
-  <si>
-    <t>2024-04-05 01:51:03 PM</t>
-  </si>
-  <si>
-    <t>2024-04-05 01:58:18 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 2:01 PM</t>
-  </si>
-  <si>
-    <t>2024-04-05 02:16:33 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 2:19 PM</t>
-  </si>
-  <si>
-    <t>2024-04-05 02:26:11 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 2:28 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 2:35 PM</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>2024-04-05 03:03:58 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 3:06 PM</t>
-  </si>
-  <si>
-    <t>2024-04-05 03:14:01 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 3:16 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 3:24 PM</t>
-  </si>
-  <si>
-    <t>2024-04-05 03:50:19 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 3:53 PM</t>
-  </si>
-  <si>
-    <t>2024-04-05 04:00:21 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 4:03 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 4:10 PM</t>
-  </si>
-  <si>
-    <t>2024-04-05 07:43:05 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 7:45 PM</t>
-  </si>
-  <si>
-    <t>2024-04-05 07:52:58 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 7:55 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 8:02 PM</t>
-  </si>
-  <si>
-    <t>2024-04-06</t>
-  </si>
-  <si>
-    <t>2024-04-06 04:54:05 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, Apr 06, 2024 at 4:56 PM</t>
-  </si>
-  <si>
-    <t>2024-04-06 05:04:07 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, Apr 06, 2024 at 5:06 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, Apr 06, 2024 at 5:14 PM</t>
-  </si>
-  <si>
     <t>CT: Mon, Apr 08, 2024 at 4:13 PM</t>
   </si>
   <si>
-    <t>2024-04-09</t>
-  </si>
-  <si>
-    <t>2024-04-09 03:46:41 PM</t>
-  </si>
-  <si>
-    <t>CT: Tue, Apr 09, 2024 at 3:49 PM</t>
-  </si>
-  <si>
-    <t>2024-04-09 03:57:07 PM</t>
-  </si>
-  <si>
-    <t>CT: Tue, Apr 09, 2024 at 4:00 PM</t>
-  </si>
-  <si>
-    <t>CT: Tue, Apr 09, 2024 at 4:07 PM</t>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>2024-06-03 08:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jun 03, 2024 at 5:03 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jun 03, 2024 at 5:22 PM</t>
+  </si>
+  <si>
+    <t>Add New Enquiry Text Area</t>
+  </si>
+  <si>
+    <t>Summary Add Enquiry Text Area</t>
+  </si>
+  <si>
+    <t>Duplicate Add Enquiry Text Area</t>
+  </si>
+  <si>
+    <t>Edit &amp; Save Enquiry Text Area</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jun 03, 2024 at 6:06 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jun 03, 2024 at 6:17 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jun 03, 2024 at 6:25 PM</t>
   </si>
 </sst>
 </file>
@@ -946,68 +780,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="2" max="2" customWidth="true" style="2" width="22.28515625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="37.5703125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.5703125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="2" max="2" customWidth="true" style="2" width="22.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="37.54296875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
-    <col min="9" max="9" style="2" width="8.7109375"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
-    <col min="13" max="14" style="2" width="8.7109375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="16" max="16" style="2" width="8.7109375"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.140625"/>
-    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
-    <col min="21" max="21" style="2" width="8.7109375"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="9" max="9" style="2" width="8.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.54296875"/>
+    <col min="13" max="14" style="2" width="8.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="16" max="16" style="2" width="8.7265625"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="21" max="21" style="2" width="8.7265625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
     <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7109375"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.140625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.42578125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7109375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="33" max="33" customWidth="true" style="2" width="20.42578125"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="27.5703125"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="2" width="19.140625"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="26.140625"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="22.140625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="45" max="45" customWidth="true" style="2" width="18.42578125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7265625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.453125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7265625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="33" max="33" customWidth="true" style="2" width="20.453125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.453125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="27.54296875"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="12.81640625"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="2" width="19.1796875"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="17.81640625"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="26.1796875"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="22.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="26.453125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.453125"/>
     <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
     <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.28515625"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.140625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7109375"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.28515625"/>
-    <col min="55" max="16384" style="2" width="8.7109375"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.26953125"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.1796875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7265625"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.26953125"/>
+    <col min="55" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
@@ -1120,22 +954,22 @@
         <v>36</v>
       </c>
       <c r="AL1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AM1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="AO1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="AR1" s="2" t="s">
         <v>85</v>
@@ -1171,7 +1005,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>84</v>
       </c>
@@ -1179,7 +1013,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1191,7 +1025,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>67</v>
@@ -1215,13 +1049,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>66</v>
@@ -1257,16 +1091,16 @@
         <v>70</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1275,22 +1109,22 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AL2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AM2" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="AN2" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>84</v>
@@ -1305,7 +1139,7 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>71</v>
@@ -1317,13 +1151,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>73</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>184</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1343,64 +1177,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.28515625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.5703125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.85546875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.453125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.54296875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.1796875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.54296875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
-    <col min="29" max="29" customWidth="true" style="2" width="38.28515625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
+    <col min="29" max="29" customWidth="true" style="2" width="38.26953125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.54296875"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.54296875"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.54296875"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.453125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.85546875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
-    <col min="53" max="16384" style="2" width="8.7109375"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.81640625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.1796875"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.81640625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
@@ -1564,7 +1398,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>84</v>
       </c>
@@ -1572,7 +1406,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1584,7 +1418,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>87</v>
@@ -1608,13 +1442,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>66</v>
@@ -1650,16 +1484,16 @@
         <v>70</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1668,10 +1502,10 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>77</v>
@@ -1689,10 +1523,10 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>72</v>
@@ -1701,13 +1535,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>187</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1726,61 +1560,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Q2"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.54296875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.1796875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.54296875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
     <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
-    <col min="29" max="29" customWidth="true" style="2" width="35.28515625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.140625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
+    <col min="29" max="29" customWidth="true" style="2" width="35.26953125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.54296875"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.453125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.54296875"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.453125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.5703125"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
-    <col min="53" max="16384" style="2" width="8.7109375"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.1796875"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.81640625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
@@ -1944,7 +1778,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>83</v>
       </c>
@@ -1952,7 +1786,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1964,10 +1798,10 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -2015,13 +1849,13 @@
         <v>68</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>94</v>
+      <c r="AC2" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>78</v>
@@ -2030,7 +1864,7 @@
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2039,10 +1873,10 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>77</v>
@@ -2060,7 +1894,7 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>75</v>
@@ -2072,7 +1906,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>76</v>
@@ -2095,63 +1929,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Q2"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.42578125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.54296875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.1796875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.54296875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
-    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.54296875"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.1796875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.54296875"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.54296875"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.54296875"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.453125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
-    <col min="53" max="16384" style="2" width="8.7109375"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.1796875"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.81640625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
@@ -2311,11 +2145,11 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" t="s" s="2">
+      <c r="BB1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>83</v>
       </c>
@@ -2323,22 +2157,22 @@
         <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -2386,13 +2220,13 @@
         <v>68</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>94</v>
+      <c r="AC2" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>78</v>
@@ -2401,7 +2235,7 @@
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2410,10 +2244,10 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>77</v>
@@ -2431,10 +2265,10 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>72</v>
@@ -2443,13 +2277,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB2" t="s" s="2">
-        <v>181</v>
+        <v>97</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2468,25 +2302,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="18.0"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.5703125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.54296875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.54296875"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="31.28515625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.5703125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.140625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="31.7109375"/>
-    <col min="9" max="9" customWidth="true" width="31.7109375"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="26.140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.26953125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.1796875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="31.7265625"/>
+    <col min="9" max="9" customWidth="true" width="31.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="26.1796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
@@ -2506,19 +2340,19 @@
         <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>84</v>
       </c>
@@ -2526,22 +2360,22 @@
         <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>58</v>

--- a/testData/CreateEntity/CreateEntity_OOFS_MultiSuccessCase_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_MultiSuccessCase_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="135">
   <si>
     <t>WorflowName</t>
   </si>
@@ -136,9 +136,6 @@
     <t>WorkflowPos</t>
   </si>
   <si>
-    <t>Mrs.</t>
-  </si>
-  <si>
     <t>Enq_Name_Prefix</t>
   </si>
   <si>
@@ -358,70 +355,79 @@
     <t>LeadRelatedModule</t>
   </si>
   <si>
+    <t>EnquiryRelatedModule</t>
+  </si>
+  <si>
+    <t>OpportunityRelatedModule</t>
+  </si>
+  <si>
+    <t>LeadModuleContent</t>
+  </si>
+  <si>
+    <t>EnquiryModuleContent</t>
+  </si>
+  <si>
+    <t>OpportunityModuleContent</t>
+  </si>
+  <si>
+    <t>OpportPhonePrefix</t>
+  </si>
+  <si>
+    <t>EnquriyCheckName</t>
+  </si>
+  <si>
+    <t>CT: Mon, Apr 08, 2024 at 4:13 PM</t>
+  </si>
+  <si>
+    <t>Add New Enquiry Text Area</t>
+  </si>
+  <si>
+    <t>Summary Add Enquiry Text Area</t>
+  </si>
+  <si>
+    <t>Duplicate Add Enquiry Text Area</t>
+  </si>
+  <si>
+    <t>Edit &amp; Save Enquiry Text Area</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>2024-07-18 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>02:35:55 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jul 15, 2024 at 12:08 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jul 15, 2024 at 12:28 PM</t>
+  </si>
+  <si>
     <t>LeadMultiSuccess@gmail.com</t>
   </si>
   <si>
-    <t>EnquiryRelatedModule</t>
-  </si>
-  <si>
-    <t>OpportunityRelatedModule</t>
-  </si>
-  <si>
-    <t>LeadModuleContent</t>
-  </si>
-  <si>
-    <t>EnquiryModuleContent</t>
-  </si>
-  <si>
-    <t>OpportunityModuleContent</t>
-  </si>
-  <si>
-    <t>OpportPhonePrefix</t>
-  </si>
-  <si>
-    <t>EnquriyCheckName</t>
-  </si>
-  <si>
-    <t>02:35:55 PM</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>CT: Mon, Apr 08, 2024 at 4:13 PM</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>2024-06-03 08:00:00 PM</t>
-  </si>
-  <si>
-    <t>CT: Mon, Jun 03, 2024 at 5:03 PM</t>
-  </si>
-  <si>
-    <t>CT: Mon, Jun 03, 2024 at 5:22 PM</t>
-  </si>
-  <si>
-    <t>Add New Enquiry Text Area</t>
-  </si>
-  <si>
-    <t>Summary Add Enquiry Text Area</t>
-  </si>
-  <si>
-    <t>Duplicate Add Enquiry Text Area</t>
-  </si>
-  <si>
-    <t>Edit &amp; Save Enquiry Text Area</t>
-  </si>
-  <si>
-    <t>CT: Mon, Jun 03, 2024 at 6:06 PM</t>
-  </si>
-  <si>
-    <t>CT: Mon, Jun 03, 2024 at 6:17 PM</t>
-  </si>
-  <si>
-    <t>CT: Mon, Jun 03, 2024 at 6:25 PM</t>
+    <t>CT: Mon, Jul 15, 2024 at 1:04 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jul 15, 2024 at 1:15 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jul 15, 2024 at 1:23 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jul 15, 2024 at 2:06 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jul 15, 2024 at 2:18 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jul 15, 2024 at 2:26 PM</t>
   </si>
 </sst>
 </file>
@@ -474,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -496,6 +502,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -780,73 +789,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="2" max="2" customWidth="true" style="2" width="22.26953125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="37.54296875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="2" max="2" customWidth="true" style="2" width="22.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="37.5703125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="9" max="9" style="2" width="8.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.54296875"/>
-    <col min="13" max="14" style="2" width="8.7265625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="16" max="16" style="2" width="8.7265625"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
-    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="21" max="21" style="2" width="8.7265625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="9" max="9" style="2" width="8.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="13" max="14" style="2" width="8.7109375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="16" max="16" style="2" width="8.7109375"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="21" max="21" style="2" width="8.7109375"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
     <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7265625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.453125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7265625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="33" max="33" customWidth="true" style="2" width="20.453125"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.453125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="27.54296875"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="12.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="2" width="19.1796875"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="17.81640625"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="26.1796875"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="22.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="26.453125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="45" max="45" customWidth="true" style="2" width="18.453125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7109375"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.42578125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7109375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="33" max="33" customWidth="true" style="2" width="20.42578125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="27.5703125"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="2" width="19.140625"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="26.140625"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="22.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.42578125"/>
     <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
     <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.26953125"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.1796875"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7265625"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.26953125"/>
-    <col min="55" max="16384" style="2" width="8.7265625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.28515625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7109375"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.28515625"/>
+    <col min="55" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -915,7 +924,7 @@
         <v>19</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>26</v>
@@ -939,7 +948,7 @@
         <v>31</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>33</v>
@@ -954,87 +963,87 @@
         <v>36</v>
       </c>
       <c r="AL1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="AO1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AP1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="AR1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AS1" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="AT1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BA1" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="BB1" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:54" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>22</v>
@@ -1049,25 +1058,25 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="Q2" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="P2" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Q2" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="U2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V2" s="2">
         <v>11111111111</v>
@@ -1076,88 +1085,88 @@
         <v>10000</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AW2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX2" s="2" t="s">
+      <c r="BA2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AY2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="BB2" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1177,69 +1186,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.453125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.54296875"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.1796875"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.28515625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.54296875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
-    <col min="29" max="29" customWidth="true" style="2" width="38.26953125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.54296875"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.54296875"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.54296875"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
+    <col min="29" max="29" customWidth="true" style="2" width="38.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.81640625"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.1796875"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.81640625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.85546875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1308,7 +1317,7 @@
         <v>19</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>26</v>
@@ -1332,7 +1341,7 @@
         <v>31</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>33</v>
@@ -1347,87 +1356,87 @@
         <v>36</v>
       </c>
       <c r="AL1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="AO1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AP1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB1" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB1" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>22</v>
@@ -1442,106 +1451,106 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="Q2" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="P2" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Q2" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="U2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="AC2" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="BA2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="BB2" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1560,66 +1569,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.54296875"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.1796875"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.54296875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
     <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
-    <col min="29" max="29" customWidth="true" style="2" width="35.26953125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.54296875"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.453125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.54296875"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
+    <col min="29" max="29" customWidth="true" style="2" width="35.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.54296875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.1796875"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.81640625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1688,7 +1697,7 @@
         <v>19</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>26</v>
@@ -1712,7 +1721,7 @@
         <v>31</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>33</v>
@@ -1727,87 +1736,87 @@
         <v>36</v>
       </c>
       <c r="AL1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="AO1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AP1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BA1" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="BB1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>22</v>
@@ -1822,94 +1831,94 @@
         <v>25</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="BA2" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1929,68 +1938,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.54296875"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.1796875"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.54296875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.140625"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" customWidth="true" style="2" width="50.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.54296875"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.54296875"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.54296875"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.1796875"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.81640625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2059,7 +2068,7 @@
         <v>19</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>26</v>
@@ -2083,7 +2092,7 @@
         <v>31</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>33</v>
@@ -2098,87 +2107,87 @@
         <v>36</v>
       </c>
       <c r="AL1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="AO1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AP1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BA1" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="BB1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>22</v>
@@ -2193,97 +2202,97 @@
         <v>25</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="BA2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="BB2" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2302,30 +2311,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="18.0"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.54296875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.54296875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.5703125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="31.26953125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.1796875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="31.7265625"/>
-    <col min="9" max="9" customWidth="true" width="31.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="26.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.28515625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.140625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="31.7109375"/>
+    <col min="9" max="9" customWidth="true" width="31.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="26.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2340,45 +2349,45 @@
         <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="2">
         <v>7708674417</v>

--- a/testData/CreateEntity/CreateEntity_OOFS_MultiSuccessCase_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_MultiSuccessCase_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="140">
   <si>
     <t>WorflowName</t>
   </si>
@@ -428,6 +428,21 @@
   </si>
   <si>
     <t>CT: Mon, Jul 15, 2024 at 2:26 PM</t>
+  </si>
+  <si>
+    <t>06-01-2025</t>
+  </si>
+  <si>
+    <t>09-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 7:50 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 8:04 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 8:12 PM</t>
   </si>
 </sst>
 </file>
@@ -1058,13 +1073,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>125</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>65</v>
@@ -1103,7 +1118,7 @@
         <v>118</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>41</v>
@@ -1166,7 +1181,7 @@
         <v>72</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1451,13 +1466,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>125</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>65</v>
@@ -1496,7 +1511,7 @@
         <v>119</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>41</v>
@@ -1550,7 +1565,7 @@
         <v>89</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
